--- a/profits/profits_report.xlsx
+++ b/profits/profits_report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="64">
   <si>
     <t>Time</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>07/04/24 01:54:03 PM</t>
+    <t>07/04/24 04:13:44 PM</t>
   </si>
   <si>
     <t>APEX-198984-03</t>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Sim101</t>
+  </si>
+  <si>
+    <t>07/04/24 04:10:27 PM</t>
+  </si>
+  <si>
+    <t>07/04/24 04:08:58 PM</t>
+  </si>
+  <si>
+    <t>07/04/24 01:54:03 PM</t>
   </si>
   <si>
     <t>07/04/24 01:52:02 PM</t>
@@ -653,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +715,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -747,7 +756,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -788,7 +797,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -829,7 +838,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -870,7 +879,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -911,7 +920,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -952,7 +961,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -993,7 +1002,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1034,7 +1043,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -1075,7 +1084,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -1116,7 +1125,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -1157,7 +1166,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -1198,7 +1207,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -1239,7 +1248,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -1280,7 +1289,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -1321,7 +1330,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -1362,7 +1371,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
@@ -1444,7 +1453,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -1485,7 +1494,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1526,7 +1535,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
@@ -1567,7 +1576,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1608,7 +1617,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -1649,7 +1658,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>14</v>
@@ -1690,7 +1699,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -1731,7 +1740,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -1772,7 +1781,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>14</v>
@@ -1813,7 +1822,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1854,7 +1863,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
@@ -1895,7 +1904,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>14</v>
@@ -1936,7 +1945,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -1977,7 +1986,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -2018,7 +2027,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>14</v>
@@ -2059,7 +2068,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -2100,7 +2109,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
@@ -2141,7 +2150,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>14</v>
@@ -2182,7 +2191,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>16</v>
@@ -2223,7 +2232,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
@@ -2264,7 +2273,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>14</v>
@@ -2305,7 +2314,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -2346,7 +2355,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
@@ -2387,7 +2396,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>14</v>
@@ -2428,7 +2437,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
@@ -2469,7 +2478,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
@@ -2510,7 +2519,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>14</v>
@@ -2551,7 +2560,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -2592,7 +2601,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>15</v>
@@ -2633,7 +2642,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>14</v>
@@ -2674,7 +2683,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>16</v>
@@ -2715,7 +2724,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
@@ -2756,7 +2765,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>14</v>
@@ -2797,7 +2806,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -2838,7 +2847,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
@@ -2879,7 +2888,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>14</v>
@@ -2920,7 +2929,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>16</v>
@@ -2961,7 +2970,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
@@ -3002,7 +3011,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>14</v>
@@ -3043,7 +3052,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -3084,7 +3093,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>15</v>
@@ -3125,7 +3134,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>14</v>
@@ -3166,7 +3175,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>16</v>
@@ -3207,7 +3216,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>15</v>
@@ -3248,7 +3257,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>14</v>
@@ -3289,7 +3298,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -3330,7 +3339,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>15</v>
@@ -3371,7 +3380,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>14</v>
@@ -3412,7 +3421,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>16</v>
@@ -3453,7 +3462,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>15</v>
@@ -3494,7 +3503,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>14</v>
@@ -3535,7 +3544,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -3576,7 +3585,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>15</v>
@@ -3617,7 +3626,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>14</v>
@@ -3658,7 +3667,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>16</v>
@@ -3699,7 +3708,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>15</v>
@@ -3740,7 +3749,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>14</v>
@@ -3781,7 +3790,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>16</v>
@@ -3822,7 +3831,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>15</v>
@@ -3863,7 +3872,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>14</v>
@@ -3904,7 +3913,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>16</v>
@@ -3945,7 +3954,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>15</v>
@@ -3986,7 +3995,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>14</v>
@@ -4027,7 +4036,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>16</v>
@@ -4068,7 +4077,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>15</v>
@@ -4109,7 +4118,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>14</v>
@@ -4150,7 +4159,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>16</v>
@@ -4191,7 +4200,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>15</v>
@@ -4232,7 +4241,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>14</v>
@@ -4273,7 +4282,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>16</v>
@@ -4314,7 +4323,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>15</v>
@@ -4355,7 +4364,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>14</v>
@@ -4396,7 +4405,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>16</v>
@@ -4437,7 +4446,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>15</v>
@@ -4478,7 +4487,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>14</v>
@@ -4519,7 +4528,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>16</v>
@@ -4560,7 +4569,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>15</v>
@@ -4601,7 +4610,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>14</v>
@@ -4642,7 +4651,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>16</v>
@@ -4683,7 +4692,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>15</v>
@@ -4724,7 +4733,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>14</v>
@@ -4765,7 +4774,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>16</v>
@@ -4806,7 +4815,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>15</v>
@@ -4847,7 +4856,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>14</v>
@@ -4888,7 +4897,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>16</v>
@@ -4929,7 +4938,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>15</v>
@@ -4970,7 +4979,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>14</v>
@@ -5011,7 +5020,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>16</v>
@@ -5052,7 +5061,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>15</v>
@@ -5093,7 +5102,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>14</v>
@@ -5134,7 +5143,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>16</v>
@@ -5175,7 +5184,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>15</v>
@@ -5216,7 +5225,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>14</v>
@@ -5257,7 +5266,7 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>16</v>
@@ -5298,7 +5307,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>15</v>
@@ -5339,7 +5348,7 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>14</v>
@@ -5380,7 +5389,7 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>16</v>
@@ -5421,7 +5430,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>15</v>
@@ -5462,7 +5471,7 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>14</v>
@@ -5503,7 +5512,7 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>16</v>
@@ -5544,7 +5553,7 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>15</v>
@@ -5585,7 +5594,7 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>14</v>
@@ -5626,7 +5635,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>16</v>
@@ -5667,7 +5676,7 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>15</v>
@@ -5708,47 +5717,416 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0</v>
+      </c>
+      <c r="H124" s="5">
+        <v>0</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0</v>
+      </c>
+      <c r="K124" s="5">
+        <v>100000</v>
+      </c>
+      <c r="L124" s="5">
+        <v>0</v>
+      </c>
+      <c r="M124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="3">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0</v>
+      </c>
+      <c r="H125" s="5">
+        <v>0</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0</v>
+      </c>
+      <c r="K125" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="L125" s="5">
+        <v>0</v>
+      </c>
+      <c r="M125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="5">
+        <v>25</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0</v>
+      </c>
+      <c r="H126" s="5">
+        <v>0</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+      <c r="K126" s="5">
+        <v>25</v>
+      </c>
+      <c r="L126" s="5">
+        <v>0</v>
+      </c>
+      <c r="M126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0</v>
+      </c>
+      <c r="H127" s="5">
+        <v>0</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0</v>
+      </c>
+      <c r="K127" s="5">
+        <v>100000</v>
+      </c>
+      <c r="L127" s="5">
+        <v>0</v>
+      </c>
+      <c r="M127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="3">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0</v>
+      </c>
+      <c r="H128" s="5">
+        <v>0</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0</v>
+      </c>
+      <c r="K128" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="L128" s="5">
+        <v>0</v>
+      </c>
+      <c r="M128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="5">
+        <v>25</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0</v>
+      </c>
+      <c r="H129" s="5">
+        <v>0</v>
+      </c>
+      <c r="I129" s="5">
+        <v>0</v>
+      </c>
+      <c r="J129" s="5">
+        <v>0</v>
+      </c>
+      <c r="K129" s="5">
+        <v>25</v>
+      </c>
+      <c r="L129" s="5">
+        <v>0</v>
+      </c>
+      <c r="M129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0</v>
+      </c>
+      <c r="H130" s="5">
+        <v>0</v>
+      </c>
+      <c r="I130" s="5">
+        <v>0</v>
+      </c>
+      <c r="J130" s="5">
+        <v>0</v>
+      </c>
+      <c r="K130" s="5">
+        <v>100000</v>
+      </c>
+      <c r="L130" s="5">
+        <v>0</v>
+      </c>
+      <c r="M130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="5">
-        <v>100000</v>
-      </c>
-      <c r="D124" s="4">
-        <v>0</v>
-      </c>
-      <c r="E124" s="4">
-        <v>0</v>
-      </c>
-      <c r="F124" s="5">
-        <v>0</v>
-      </c>
-      <c r="G124" s="5">
-        <v>0</v>
-      </c>
-      <c r="H124" s="5">
-        <v>0</v>
-      </c>
-      <c r="I124" s="5">
-        <v>0</v>
-      </c>
-      <c r="J124" s="5">
-        <v>0</v>
-      </c>
-      <c r="K124" s="5">
-        <v>100000</v>
-      </c>
-      <c r="L124" s="5">
-        <v>0</v>
-      </c>
-      <c r="M124" s="5">
+      <c r="B131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="3">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0</v>
+      </c>
+      <c r="H131" s="5">
+        <v>0</v>
+      </c>
+      <c r="I131" s="5">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0</v>
+      </c>
+      <c r="K131" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="L131" s="5">
+        <v>0</v>
+      </c>
+      <c r="M131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5">
+        <v>25</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0</v>
+      </c>
+      <c r="H132" s="5">
+        <v>0</v>
+      </c>
+      <c r="I132" s="5">
+        <v>0</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0</v>
+      </c>
+      <c r="K132" s="5">
+        <v>25</v>
+      </c>
+      <c r="L132" s="5">
+        <v>0</v>
+      </c>
+      <c r="M132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0</v>
+      </c>
+      <c r="H133" s="5">
+        <v>0</v>
+      </c>
+      <c r="I133" s="5">
+        <v>0</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0</v>
+      </c>
+      <c r="K133" s="5">
+        <v>100000</v>
+      </c>
+      <c r="L133" s="5">
+        <v>0</v>
+      </c>
+      <c r="M133" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C124">
+  <conditionalFormatting sqref="C2:C133">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5756,7 +6134,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D124">
+  <conditionalFormatting sqref="D2:D133">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5764,7 +6142,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E124">
+  <conditionalFormatting sqref="E2:E133">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5772,7 +6150,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F124">
+  <conditionalFormatting sqref="F2:F133">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5780,7 +6158,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G124">
+  <conditionalFormatting sqref="G2:G133">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5788,7 +6166,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H124">
+  <conditionalFormatting sqref="H2:H133">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5796,7 +6174,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I124">
+  <conditionalFormatting sqref="I2:I133">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5804,7 +6182,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J124">
+  <conditionalFormatting sqref="J2:J133">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5812,7 +6190,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K124">
+  <conditionalFormatting sqref="K2:K133">
     <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5820,7 +6198,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L124">
+  <conditionalFormatting sqref="L2:L133">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5828,7 +6206,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M124">
+  <conditionalFormatting sqref="M2:M133">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5842,7 +6220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5871,7 +6249,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -5888,7 +6266,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -5905,7 +6283,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -5922,7 +6300,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
@@ -5939,7 +6317,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -5956,7 +6334,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -5973,7 +6351,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -5990,7 +6368,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -6007,7 +6385,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -6024,7 +6402,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -6041,7 +6419,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
@@ -6058,7 +6436,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -6075,7 +6453,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
@@ -6092,7 +6470,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -6109,7 +6487,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -6118,7 +6496,7 @@
         <v>100000</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -6126,7 +6504,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -6143,7 +6521,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -6152,7 +6530,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -6160,7 +6538,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -6169,7 +6547,7 @@
         <v>100000</v>
       </c>
       <c r="D19" s="4">
-        <v>3999</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -6177,7 +6555,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -6194,7 +6572,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -6203,7 +6581,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -6211,7 +6589,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
@@ -6220,7 +6598,7 @@
         <v>100000</v>
       </c>
       <c r="D22" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -6228,7 +6606,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -6245,7 +6623,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -6262,7 +6640,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>14</v>
@@ -6279,7 +6657,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>16</v>
@@ -6296,7 +6674,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>15</v>
@@ -6313,7 +6691,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -6330,7 +6708,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>16</v>
@@ -6347,7 +6725,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
@@ -6364,7 +6742,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>14</v>
@@ -6373,7 +6751,7 @@
         <v>100000</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -6381,7 +6759,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>16</v>
@@ -6398,7 +6776,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>15</v>
@@ -6407,7 +6785,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>-0.99975</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -6415,7 +6793,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>14</v>
@@ -6424,7 +6802,7 @@
         <v>100000</v>
       </c>
       <c r="D34" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -6432,7 +6810,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>16</v>
@@ -6441,7 +6819,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -6449,7 +6827,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -6458,7 +6836,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -6466,7 +6844,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
@@ -6475,7 +6853,7 @@
         <v>100000</v>
       </c>
       <c r="D37" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -6483,7 +6861,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -6500,7 +6878,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>15</v>
@@ -6509,7 +6887,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -6517,7 +6895,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -6534,7 +6912,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>16</v>
@@ -6551,7 +6929,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -6568,7 +6946,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -6585,7 +6963,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>16</v>
@@ -6602,7 +6980,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>15</v>
@@ -6619,7 +6997,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>14</v>
@@ -6628,7 +7006,7 @@
         <v>100000</v>
       </c>
       <c r="D46" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -6636,7 +7014,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>16</v>
@@ -6653,7 +7031,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>15</v>
@@ -6662,7 +7040,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -6670,7 +7048,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>14</v>
@@ -6687,7 +7065,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>16</v>
@@ -6704,7 +7082,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>15</v>
@@ -6721,7 +7099,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>14</v>
@@ -6730,7 +7108,7 @@
         <v>100000</v>
       </c>
       <c r="D52" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -6738,7 +7116,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>16</v>
@@ -6747,7 +7125,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D53" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -6755,7 +7133,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>15</v>
@@ -6764,7 +7142,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -6772,7 +7150,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -6781,7 +7159,7 @@
         <v>100000</v>
       </c>
       <c r="D55" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -6789,7 +7167,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>16</v>
@@ -6806,7 +7184,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>15</v>
@@ -6823,7 +7201,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>14</v>
@@ -6840,7 +7218,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>16</v>
@@ -6857,7 +7235,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>15</v>
@@ -6874,7 +7252,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>14</v>
@@ -6891,7 +7269,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>16</v>
@@ -6908,7 +7286,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>15</v>
@@ -6925,7 +7303,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>14</v>
@@ -6942,7 +7320,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>16</v>
@@ -6959,7 +7337,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>15</v>
@@ -6976,7 +7354,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -6993,7 +7371,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>16</v>
@@ -7002,7 +7380,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D68" s="4">
-        <v>2039.928800000056</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -7010,7 +7388,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>15</v>
@@ -7019,7 +7397,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="4">
-        <v>-0.99975</v>
+        <v>0</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -7027,7 +7405,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>14</v>
@@ -7036,7 +7414,7 @@
         <v>100000</v>
       </c>
       <c r="D70" s="4">
-        <v>0</v>
+        <v>3999</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -7044,7 +7422,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>16</v>
@@ -7053,7 +7431,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D71" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -7061,7 +7439,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>15</v>
@@ -7070,7 +7448,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -7078,7 +7456,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>14</v>
@@ -7095,7 +7473,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>16</v>
@@ -7112,7 +7490,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>15</v>
@@ -7129,7 +7507,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>14</v>
@@ -7146,7 +7524,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>16</v>
@@ -7163,7 +7541,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>15</v>
@@ -7180,7 +7558,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>14</v>
@@ -7189,7 +7567,7 @@
         <v>100000</v>
       </c>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -7197,7 +7575,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>16</v>
@@ -7214,7 +7592,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>15</v>
@@ -7223,7 +7601,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -7231,7 +7609,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>14</v>
@@ -7248,7 +7626,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>16</v>
@@ -7265,7 +7643,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>15</v>
@@ -7282,7 +7660,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>14</v>
@@ -7291,7 +7669,7 @@
         <v>100000</v>
       </c>
       <c r="D85" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -7299,7 +7677,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>16</v>
@@ -7308,7 +7686,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D86" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -7316,7 +7694,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>15</v>
@@ -7325,7 +7703,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -7333,7 +7711,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>14</v>
@@ -7342,7 +7720,7 @@
         <v>100000</v>
       </c>
       <c r="D88" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -7350,7 +7728,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>16</v>
@@ -7367,7 +7745,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>15</v>
@@ -7384,7 +7762,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>14</v>
@@ -7401,7 +7779,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>16</v>
@@ -7418,7 +7796,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>15</v>
@@ -7435,7 +7813,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>14</v>
@@ -7444,7 +7822,7 @@
         <v>100000</v>
       </c>
       <c r="D94" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -7452,7 +7830,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>16</v>
@@ -7469,7 +7847,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>15</v>
@@ -7478,7 +7856,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -7486,7 +7864,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>14</v>
@@ -7503,7 +7881,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>16</v>
@@ -7520,7 +7898,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>15</v>
@@ -7537,7 +7915,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>14</v>
@@ -7546,7 +7924,7 @@
         <v>100000</v>
       </c>
       <c r="D100" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -7554,7 +7932,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>16</v>
@@ -7563,7 +7941,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D101" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -7571,7 +7949,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>15</v>
@@ -7580,7 +7958,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -7588,7 +7966,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>14</v>
@@ -7597,7 +7975,7 @@
         <v>100000</v>
       </c>
       <c r="D103" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -7605,7 +7983,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>16</v>
@@ -7622,7 +8000,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>15</v>
@@ -7639,7 +8017,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>14</v>
@@ -7656,7 +8034,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>16</v>
@@ -7673,7 +8051,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>15</v>
@@ -7690,7 +8068,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>14</v>
@@ -7707,7 +8085,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>16</v>
@@ -7716,7 +8094,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D110" s="4">
-        <v>0</v>
+        <v>2039.928800000056</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -7724,7 +8102,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>15</v>
@@ -7741,7 +8119,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>14</v>
@@ -7750,7 +8128,7 @@
         <v>100000</v>
       </c>
       <c r="D112" s="4">
-        <v>3999</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -7758,7 +8136,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>16</v>
@@ -7775,7 +8153,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>15</v>
@@ -7792,7 +8170,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>14</v>
@@ -7809,7 +8187,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>16</v>
@@ -7826,7 +8204,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>15</v>
@@ -7843,7 +8221,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>14</v>
@@ -7852,7 +8230,7 @@
         <v>100000</v>
       </c>
       <c r="D118" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -7860,7 +8238,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>16</v>
@@ -7877,7 +8255,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>15</v>
@@ -7886,7 +8264,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -7894,7 +8272,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>14</v>
@@ -7911,7 +8289,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>16</v>
@@ -7928,7 +8306,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>15</v>
@@ -7945,7 +8323,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>14</v>
@@ -7954,14 +8332,167 @@
         <v>100000</v>
       </c>
       <c r="D124" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="5">
+        <v>25</v>
+      </c>
+      <c r="D126" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="5">
+        <v>25</v>
+      </c>
+      <c r="D129" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5">
+        <v>25</v>
+      </c>
+      <c r="D132" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C124">
+  <conditionalFormatting sqref="C2:C133">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7969,7 +8500,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D124">
+  <conditionalFormatting sqref="D2:D133">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7977,7 +8508,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E124">
+  <conditionalFormatting sqref="E2:E133">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7991,7 +8522,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8020,7 +8551,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -8037,7 +8568,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -8054,7 +8585,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -8071,7 +8602,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
@@ -8088,7 +8619,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -8105,7 +8636,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -8122,7 +8653,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -8139,7 +8670,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -8156,7 +8687,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -8173,7 +8704,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -8190,7 +8721,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
@@ -8207,7 +8738,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -8224,7 +8755,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
@@ -8241,7 +8772,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -8258,7 +8789,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -8267,7 +8798,7 @@
         <v>100000</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -8275,7 +8806,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -8292,7 +8823,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -8301,7 +8832,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -8309,7 +8840,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -8318,7 +8849,7 @@
         <v>100000</v>
       </c>
       <c r="D19" s="4">
-        <v>3999</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -8326,7 +8857,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -8343,7 +8874,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -8352,7 +8883,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -8360,7 +8891,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
@@ -8369,7 +8900,7 @@
         <v>100000</v>
       </c>
       <c r="D22" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -8377,7 +8908,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -8394,7 +8925,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -8411,7 +8942,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>14</v>
@@ -8428,7 +8959,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>16</v>
@@ -8445,7 +8976,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>15</v>
@@ -8462,7 +8993,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -8479,7 +9010,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>16</v>
@@ -8496,7 +9027,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
@@ -8513,7 +9044,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>14</v>
@@ -8522,7 +9053,7 @@
         <v>100000</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -8530,7 +9061,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>16</v>
@@ -8547,7 +9078,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>15</v>
@@ -8556,7 +9087,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>-0.99975</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -8564,7 +9095,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>14</v>
@@ -8573,7 +9104,7 @@
         <v>100000</v>
       </c>
       <c r="D34" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -8581,7 +9112,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>16</v>
@@ -8590,7 +9121,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -8598,7 +9129,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -8607,7 +9138,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -8615,7 +9146,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
@@ -8624,7 +9155,7 @@
         <v>100000</v>
       </c>
       <c r="D37" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -8632,7 +9163,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -8649,7 +9180,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>15</v>
@@ -8658,7 +9189,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -8666,7 +9197,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -8683,7 +9214,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>16</v>
@@ -8700,7 +9231,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -8717,7 +9248,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -8734,7 +9265,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>16</v>
@@ -8751,7 +9282,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>15</v>
@@ -8768,7 +9299,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>14</v>
@@ -8777,7 +9308,7 @@
         <v>100000</v>
       </c>
       <c r="D46" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -8785,7 +9316,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>16</v>
@@ -8802,7 +9333,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>15</v>
@@ -8811,7 +9342,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -8819,7 +9350,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>14</v>
@@ -8836,7 +9367,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>16</v>
@@ -8853,7 +9384,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>15</v>
@@ -8870,7 +9401,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>14</v>
@@ -8879,7 +9410,7 @@
         <v>100000</v>
       </c>
       <c r="D52" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -8887,7 +9418,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>16</v>
@@ -8896,7 +9427,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D53" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -8904,7 +9435,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>15</v>
@@ -8913,7 +9444,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -8921,7 +9452,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -8930,7 +9461,7 @@
         <v>100000</v>
       </c>
       <c r="D55" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -8938,7 +9469,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>16</v>
@@ -8955,7 +9486,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>15</v>
@@ -8972,7 +9503,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>14</v>
@@ -8989,7 +9520,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>16</v>
@@ -9006,7 +9537,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>15</v>
@@ -9023,7 +9554,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>14</v>
@@ -9040,7 +9571,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>16</v>
@@ -9057,7 +9588,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>15</v>
@@ -9074,7 +9605,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>14</v>
@@ -9091,7 +9622,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>16</v>
@@ -9108,7 +9639,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>15</v>
@@ -9125,7 +9656,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -9142,7 +9673,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>16</v>
@@ -9151,7 +9682,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D68" s="4">
-        <v>2039.928800000056</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -9159,7 +9690,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>15</v>
@@ -9168,7 +9699,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="4">
-        <v>-0.99975</v>
+        <v>0</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -9176,7 +9707,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>14</v>
@@ -9185,7 +9716,7 @@
         <v>100000</v>
       </c>
       <c r="D70" s="4">
-        <v>0</v>
+        <v>3999</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -9193,7 +9724,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>16</v>
@@ -9202,7 +9733,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D71" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -9210,7 +9741,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>15</v>
@@ -9219,7 +9750,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -9227,7 +9758,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>14</v>
@@ -9244,7 +9775,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>16</v>
@@ -9261,7 +9792,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>15</v>
@@ -9278,7 +9809,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>14</v>
@@ -9295,7 +9826,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>16</v>
@@ -9312,7 +9843,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>15</v>
@@ -9329,7 +9860,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>14</v>
@@ -9338,7 +9869,7 @@
         <v>100000</v>
       </c>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -9346,7 +9877,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>16</v>
@@ -9363,7 +9894,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>15</v>
@@ -9372,7 +9903,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -9380,7 +9911,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>14</v>
@@ -9397,7 +9928,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>16</v>
@@ -9414,7 +9945,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>15</v>
@@ -9431,7 +9962,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>14</v>
@@ -9440,7 +9971,7 @@
         <v>100000</v>
       </c>
       <c r="D85" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -9448,7 +9979,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>16</v>
@@ -9457,7 +9988,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D86" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -9465,7 +9996,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>15</v>
@@ -9474,7 +10005,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -9482,7 +10013,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>14</v>
@@ -9491,7 +10022,7 @@
         <v>100000</v>
       </c>
       <c r="D88" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -9499,7 +10030,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>16</v>
@@ -9516,7 +10047,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>15</v>
@@ -9533,7 +10064,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>14</v>
@@ -9550,7 +10081,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>16</v>
@@ -9567,7 +10098,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>15</v>
@@ -9584,7 +10115,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>14</v>
@@ -9593,7 +10124,7 @@
         <v>100000</v>
       </c>
       <c r="D94" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -9601,7 +10132,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>16</v>
@@ -9618,7 +10149,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>15</v>
@@ -9627,7 +10158,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -9635,7 +10166,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>14</v>
@@ -9652,7 +10183,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>16</v>
@@ -9669,7 +10200,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>15</v>
@@ -9686,7 +10217,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>14</v>
@@ -9695,7 +10226,7 @@
         <v>100000</v>
       </c>
       <c r="D100" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -9703,7 +10234,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>16</v>
@@ -9712,7 +10243,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D101" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -9720,7 +10251,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>15</v>
@@ -9729,7 +10260,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -9737,7 +10268,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>14</v>
@@ -9746,7 +10277,7 @@
         <v>100000</v>
       </c>
       <c r="D103" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -9754,7 +10285,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>16</v>
@@ -9771,7 +10302,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>15</v>
@@ -9788,7 +10319,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>14</v>
@@ -9805,7 +10336,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>16</v>
@@ -9822,7 +10353,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>15</v>
@@ -9839,7 +10370,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>14</v>
@@ -9856,7 +10387,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>16</v>
@@ -9865,7 +10396,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D110" s="4">
-        <v>0</v>
+        <v>2039.928800000056</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -9873,7 +10404,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>15</v>
@@ -9890,7 +10421,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>14</v>
@@ -9899,7 +10430,7 @@
         <v>100000</v>
       </c>
       <c r="D112" s="4">
-        <v>3999</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -9907,7 +10438,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>16</v>
@@ -9924,7 +10455,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>15</v>
@@ -9941,7 +10472,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>14</v>
@@ -9958,7 +10489,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>16</v>
@@ -9975,7 +10506,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>15</v>
@@ -9992,7 +10523,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>14</v>
@@ -10001,7 +10532,7 @@
         <v>100000</v>
       </c>
       <c r="D118" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -10009,7 +10540,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>16</v>
@@ -10026,7 +10557,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>15</v>
@@ -10035,7 +10566,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -10043,7 +10574,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>14</v>
@@ -10060,7 +10591,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>16</v>
@@ -10077,7 +10608,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>15</v>
@@ -10094,7 +10625,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>14</v>
@@ -10103,14 +10634,167 @@
         <v>100000</v>
       </c>
       <c r="D124" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="5">
+        <v>25</v>
+      </c>
+      <c r="D126" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="5">
+        <v>25</v>
+      </c>
+      <c r="D129" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5">
+        <v>25</v>
+      </c>
+      <c r="D132" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C124">
+  <conditionalFormatting sqref="C2:C133">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10118,7 +10802,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D124">
+  <conditionalFormatting sqref="D2:D133">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10126,7 +10810,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E124">
+  <conditionalFormatting sqref="E2:E133">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10140,7 +10824,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10169,7 +10853,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -10186,7 +10870,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -10203,7 +10887,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -10220,7 +10904,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
@@ -10237,7 +10921,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -10254,7 +10938,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -10271,7 +10955,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -10288,7 +10972,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -10305,7 +10989,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -10322,7 +11006,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -10339,7 +11023,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
@@ -10356,7 +11040,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -10373,7 +11057,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
@@ -10390,7 +11074,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -10407,7 +11091,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -10416,7 +11100,7 @@
         <v>100000</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -10424,7 +11108,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -10441,7 +11125,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -10450,7 +11134,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -10458,7 +11142,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -10467,7 +11151,7 @@
         <v>100000</v>
       </c>
       <c r="D19" s="4">
-        <v>3999</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -10475,7 +11159,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -10492,7 +11176,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -10501,7 +11185,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -10509,7 +11193,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
@@ -10518,7 +11202,7 @@
         <v>100000</v>
       </c>
       <c r="D22" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -10526,7 +11210,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -10543,7 +11227,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -10560,7 +11244,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>14</v>
@@ -10577,7 +11261,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>16</v>
@@ -10594,7 +11278,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>15</v>
@@ -10611,7 +11295,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -10628,7 +11312,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>16</v>
@@ -10645,7 +11329,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
@@ -10662,7 +11346,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>14</v>
@@ -10671,7 +11355,7 @@
         <v>100000</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -10679,7 +11363,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>16</v>
@@ -10696,7 +11380,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>15</v>
@@ -10705,7 +11389,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>-0.99975</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -10713,7 +11397,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>14</v>
@@ -10722,7 +11406,7 @@
         <v>100000</v>
       </c>
       <c r="D34" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -10730,7 +11414,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>16</v>
@@ -10739,7 +11423,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -10747,7 +11431,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -10756,7 +11440,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -10764,7 +11448,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
@@ -10773,7 +11457,7 @@
         <v>100000</v>
       </c>
       <c r="D37" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -10781,7 +11465,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -10798,7 +11482,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>15</v>
@@ -10807,7 +11491,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -10815,7 +11499,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -10832,7 +11516,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>16</v>
@@ -10849,7 +11533,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -10866,7 +11550,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -10883,7 +11567,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>16</v>
@@ -10900,7 +11584,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>15</v>
@@ -10917,7 +11601,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>14</v>
@@ -10926,7 +11610,7 @@
         <v>100000</v>
       </c>
       <c r="D46" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -10934,7 +11618,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>16</v>
@@ -10951,7 +11635,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>15</v>
@@ -10960,7 +11644,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -10968,7 +11652,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>14</v>
@@ -10985,7 +11669,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>16</v>
@@ -11002,7 +11686,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>15</v>
@@ -11019,7 +11703,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>14</v>
@@ -11028,7 +11712,7 @@
         <v>100000</v>
       </c>
       <c r="D52" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -11036,7 +11720,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>16</v>
@@ -11045,7 +11729,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D53" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -11053,7 +11737,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>15</v>
@@ -11062,7 +11746,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -11070,7 +11754,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -11079,7 +11763,7 @@
         <v>100000</v>
       </c>
       <c r="D55" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -11087,7 +11771,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>16</v>
@@ -11104,7 +11788,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>15</v>
@@ -11121,7 +11805,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>14</v>
@@ -11138,7 +11822,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>16</v>
@@ -11155,7 +11839,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>15</v>
@@ -11172,7 +11856,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>14</v>
@@ -11189,7 +11873,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>16</v>
@@ -11206,7 +11890,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>15</v>
@@ -11223,7 +11907,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>14</v>
@@ -11240,7 +11924,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>16</v>
@@ -11257,7 +11941,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>15</v>
@@ -11274,7 +11958,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -11291,7 +11975,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>16</v>
@@ -11300,7 +11984,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D68" s="4">
-        <v>2039.928800000056</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -11308,7 +11992,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>15</v>
@@ -11317,7 +12001,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="4">
-        <v>-0.99975</v>
+        <v>0</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -11325,7 +12009,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>14</v>
@@ -11334,7 +12018,7 @@
         <v>100000</v>
       </c>
       <c r="D70" s="4">
-        <v>0</v>
+        <v>3999</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -11342,7 +12026,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>16</v>
@@ -11351,7 +12035,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D71" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -11359,7 +12043,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>15</v>
@@ -11368,7 +12052,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -11376,7 +12060,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>14</v>
@@ -11393,7 +12077,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>16</v>
@@ -11410,7 +12094,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>15</v>
@@ -11427,7 +12111,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>14</v>
@@ -11444,7 +12128,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>16</v>
@@ -11461,7 +12145,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>15</v>
@@ -11478,7 +12162,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>14</v>
@@ -11487,7 +12171,7 @@
         <v>100000</v>
       </c>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -11495,7 +12179,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>16</v>
@@ -11512,7 +12196,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>15</v>
@@ -11521,7 +12205,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -11529,7 +12213,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>14</v>
@@ -11546,7 +12230,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>16</v>
@@ -11563,7 +12247,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>15</v>
@@ -11580,7 +12264,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>14</v>
@@ -11589,7 +12273,7 @@
         <v>100000</v>
       </c>
       <c r="D85" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -11597,7 +12281,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>16</v>
@@ -11606,7 +12290,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D86" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -11614,7 +12298,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>15</v>
@@ -11623,7 +12307,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -11631,7 +12315,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>14</v>
@@ -11640,7 +12324,7 @@
         <v>100000</v>
       </c>
       <c r="D88" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -11648,7 +12332,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>16</v>
@@ -11665,7 +12349,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>15</v>
@@ -11682,7 +12366,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>14</v>
@@ -11699,7 +12383,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>16</v>
@@ -11716,7 +12400,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>15</v>
@@ -11733,7 +12417,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>14</v>
@@ -11742,7 +12426,7 @@
         <v>100000</v>
       </c>
       <c r="D94" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -11750,7 +12434,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>16</v>
@@ -11767,7 +12451,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>15</v>
@@ -11776,7 +12460,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -11784,7 +12468,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>14</v>
@@ -11801,7 +12485,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>16</v>
@@ -11818,7 +12502,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>15</v>
@@ -11835,7 +12519,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>14</v>
@@ -11844,7 +12528,7 @@
         <v>100000</v>
       </c>
       <c r="D100" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -11852,7 +12536,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>16</v>
@@ -11861,7 +12545,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D101" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -11869,7 +12553,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>15</v>
@@ -11878,7 +12562,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -11886,7 +12570,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>14</v>
@@ -11895,7 +12579,7 @@
         <v>100000</v>
       </c>
       <c r="D103" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -11903,7 +12587,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>16</v>
@@ -11920,7 +12604,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>15</v>
@@ -11937,7 +12621,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>14</v>
@@ -11954,7 +12638,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>16</v>
@@ -11971,7 +12655,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>15</v>
@@ -11988,7 +12672,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>14</v>
@@ -12005,7 +12689,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>16</v>
@@ -12014,7 +12698,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D110" s="4">
-        <v>0</v>
+        <v>2039.928800000056</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -12022,7 +12706,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>15</v>
@@ -12039,7 +12723,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>14</v>
@@ -12048,7 +12732,7 @@
         <v>100000</v>
       </c>
       <c r="D112" s="4">
-        <v>3999</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -12056,7 +12740,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>16</v>
@@ -12073,7 +12757,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>15</v>
@@ -12090,7 +12774,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>14</v>
@@ -12107,7 +12791,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>16</v>
@@ -12124,7 +12808,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>15</v>
@@ -12141,7 +12825,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>14</v>
@@ -12150,7 +12834,7 @@
         <v>100000</v>
       </c>
       <c r="D118" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -12158,7 +12842,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>16</v>
@@ -12175,7 +12859,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>15</v>
@@ -12184,7 +12868,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -12192,7 +12876,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>14</v>
@@ -12209,7 +12893,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>16</v>
@@ -12226,7 +12910,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>15</v>
@@ -12243,7 +12927,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>14</v>
@@ -12252,14 +12936,167 @@
         <v>100000</v>
       </c>
       <c r="D124" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="5">
+        <v>25</v>
+      </c>
+      <c r="D126" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="5">
+        <v>25</v>
+      </c>
+      <c r="D129" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5">
+        <v>25</v>
+      </c>
+      <c r="D132" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C124">
+  <conditionalFormatting sqref="C2:C133">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -12267,7 +13104,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D124">
+  <conditionalFormatting sqref="D2:D133">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -12275,7 +13112,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E124">
+  <conditionalFormatting sqref="E2:E133">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -12289,7 +13126,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12318,7 +13155,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -12335,7 +13172,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -12352,7 +13189,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -12369,7 +13206,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
@@ -12386,7 +13223,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -12403,7 +13240,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -12420,7 +13257,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -12437,7 +13274,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -12454,7 +13291,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -12471,7 +13308,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -12488,7 +13325,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
@@ -12505,7 +13342,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -12522,7 +13359,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
@@ -12539,7 +13376,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -12556,7 +13393,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -12565,7 +13402,7 @@
         <v>100000</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -12573,7 +13410,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -12590,7 +13427,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -12599,7 +13436,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -12607,7 +13444,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -12616,7 +13453,7 @@
         <v>100000</v>
       </c>
       <c r="D19" s="4">
-        <v>3999</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -12624,7 +13461,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -12641,7 +13478,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -12650,7 +13487,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -12658,7 +13495,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
@@ -12667,7 +13504,7 @@
         <v>100000</v>
       </c>
       <c r="D22" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -12675,7 +13512,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -12692,7 +13529,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -12709,7 +13546,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>14</v>
@@ -12726,7 +13563,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>16</v>
@@ -12743,7 +13580,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>15</v>
@@ -12760,7 +13597,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -12777,7 +13614,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>16</v>
@@ -12794,7 +13631,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
@@ -12811,7 +13648,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>14</v>
@@ -12820,7 +13657,7 @@
         <v>100000</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -12828,7 +13665,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>16</v>
@@ -12845,7 +13682,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>15</v>
@@ -12854,7 +13691,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>-0.99975</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -12862,7 +13699,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>14</v>
@@ -12871,7 +13708,7 @@
         <v>100000</v>
       </c>
       <c r="D34" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -12879,7 +13716,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>16</v>
@@ -12888,7 +13725,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -12896,7 +13733,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -12905,7 +13742,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -12913,7 +13750,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
@@ -12922,7 +13759,7 @@
         <v>100000</v>
       </c>
       <c r="D37" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -12930,7 +13767,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -12947,7 +13784,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>15</v>
@@ -12956,7 +13793,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -12964,7 +13801,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -12981,7 +13818,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>16</v>
@@ -12998,7 +13835,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -13015,7 +13852,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -13032,7 +13869,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>16</v>
@@ -13049,7 +13886,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>15</v>
@@ -13066,7 +13903,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>14</v>
@@ -13075,7 +13912,7 @@
         <v>100000</v>
       </c>
       <c r="D46" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -13083,7 +13920,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>16</v>
@@ -13100,7 +13937,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>15</v>
@@ -13109,7 +13946,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -13117,7 +13954,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>14</v>
@@ -13134,7 +13971,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>16</v>
@@ -13151,7 +13988,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>15</v>
@@ -13168,7 +14005,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>14</v>
@@ -13177,7 +14014,7 @@
         <v>100000</v>
       </c>
       <c r="D52" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -13185,7 +14022,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>16</v>
@@ -13194,7 +14031,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D53" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -13202,7 +14039,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>15</v>
@@ -13211,7 +14048,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -13219,7 +14056,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -13228,7 +14065,7 @@
         <v>100000</v>
       </c>
       <c r="D55" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -13236,7 +14073,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>16</v>
@@ -13253,7 +14090,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>15</v>
@@ -13270,7 +14107,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>14</v>
@@ -13287,7 +14124,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>16</v>
@@ -13304,7 +14141,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>15</v>
@@ -13321,7 +14158,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>14</v>
@@ -13338,7 +14175,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>16</v>
@@ -13355,7 +14192,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>15</v>
@@ -13372,7 +14209,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>14</v>
@@ -13389,7 +14226,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>16</v>
@@ -13406,7 +14243,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>15</v>
@@ -13423,7 +14260,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -13440,7 +14277,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>16</v>
@@ -13449,7 +14286,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D68" s="4">
-        <v>2039.928800000056</v>
+        <v>-0.489767799999986</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -13457,7 +14294,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>15</v>
@@ -13466,7 +14303,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="4">
-        <v>-0.99975</v>
+        <v>0</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
@@ -13474,7 +14311,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>14</v>
@@ -13483,7 +14320,7 @@
         <v>100000</v>
       </c>
       <c r="D70" s="4">
-        <v>0</v>
+        <v>3999</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
@@ -13491,7 +14328,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>16</v>
@@ -13500,7 +14337,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D71" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
@@ -13508,7 +14345,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>15</v>
@@ -13517,7 +14354,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
@@ -13525,7 +14362,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>14</v>
@@ -13542,7 +14379,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>16</v>
@@ -13559,7 +14396,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>15</v>
@@ -13576,7 +14413,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>14</v>
@@ -13593,7 +14430,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>16</v>
@@ -13610,7 +14447,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>15</v>
@@ -13627,7 +14464,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>14</v>
@@ -13636,7 +14473,7 @@
         <v>100000</v>
       </c>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -13644,7 +14481,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>16</v>
@@ -13661,7 +14498,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>15</v>
@@ -13670,7 +14507,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -13678,7 +14515,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>14</v>
@@ -13695,7 +14532,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>16</v>
@@ -13712,7 +14549,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>15</v>
@@ -13729,7 +14566,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>14</v>
@@ -13738,7 +14575,7 @@
         <v>100000</v>
       </c>
       <c r="D85" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -13746,7 +14583,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>16</v>
@@ -13755,7 +14592,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D86" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -13763,7 +14600,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>15</v>
@@ -13772,7 +14609,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -13780,7 +14617,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>14</v>
@@ -13789,7 +14626,7 @@
         <v>100000</v>
       </c>
       <c r="D88" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -13797,7 +14634,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>16</v>
@@ -13814,7 +14651,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>15</v>
@@ -13831,7 +14668,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>14</v>
@@ -13848,7 +14685,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>16</v>
@@ -13865,7 +14702,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>15</v>
@@ -13882,7 +14719,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>14</v>
@@ -13891,7 +14728,7 @@
         <v>100000</v>
       </c>
       <c r="D94" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -13899,7 +14736,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>16</v>
@@ -13916,7 +14753,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>15</v>
@@ -13925,7 +14762,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="4">
-        <v>-0.9995100270033918</v>
+        <v>-0.99975</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -13933,7 +14770,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>14</v>
@@ -13950,7 +14787,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>16</v>
@@ -13967,7 +14804,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>15</v>
@@ -13984,7 +14821,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>14</v>
@@ -13993,7 +14830,7 @@
         <v>100000</v>
       </c>
       <c r="D100" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -14001,7 +14838,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>16</v>
@@ -14010,7 +14847,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D101" s="4">
-        <v>2039.928800000056</v>
+        <v>0</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -14018,7 +14855,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>15</v>
@@ -14027,7 +14864,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -14035,7 +14872,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>14</v>
@@ -14044,7 +14881,7 @@
         <v>100000</v>
       </c>
       <c r="D103" s="4">
-        <v>0.9598919864327901</v>
+        <v>3999</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -14052,7 +14889,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>16</v>
@@ -14069,7 +14906,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>15</v>
@@ -14086,7 +14923,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>14</v>
@@ -14103,7 +14940,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>16</v>
@@ -14120,7 +14957,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>15</v>
@@ -14137,7 +14974,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>14</v>
@@ -14154,7 +14991,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>16</v>
@@ -14163,7 +15000,7 @@
         <v>51023.2200000014</v>
       </c>
       <c r="D110" s="4">
-        <v>0</v>
+        <v>2039.928800000056</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -14171,7 +15008,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>15</v>
@@ -14188,7 +15025,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>14</v>
@@ -14197,7 +15034,7 @@
         <v>100000</v>
       </c>
       <c r="D112" s="4">
-        <v>3999</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -14205,7 +15042,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>16</v>
@@ -14222,7 +15059,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>15</v>
@@ -14239,7 +15076,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>14</v>
@@ -14256,7 +15093,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>16</v>
@@ -14273,7 +15110,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>15</v>
@@ -14290,7 +15127,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>14</v>
@@ -14299,7 +15136,7 @@
         <v>100000</v>
       </c>
       <c r="D118" s="4">
-        <v>0.9598919864327901</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -14307,7 +15144,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>16</v>
@@ -14324,7 +15161,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>15</v>
@@ -14333,7 +15170,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="4">
-        <v>-0.99975</v>
+        <v>-0.9995100270033918</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -14341,7 +15178,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>14</v>
@@ -14358,7 +15195,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>16</v>
@@ -14375,7 +15212,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>15</v>
@@ -14392,7 +15229,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>14</v>
@@ -14401,14 +15238,167 @@
         <v>100000</v>
       </c>
       <c r="D124" s="4">
-        <v>0</v>
+        <v>0.9598919864327901</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="5">
+        <v>25</v>
+      </c>
+      <c r="D126" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="5">
+        <v>25</v>
+      </c>
+      <c r="D129" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.9598919864327901</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="5">
+        <v>51023.2200000014</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2039.928800000056</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5">
+        <v>25</v>
+      </c>
+      <c r="D132" s="4">
+        <v>-0.99975</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C124">
+  <conditionalFormatting sqref="C2:C133">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14416,7 +15406,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D124">
+  <conditionalFormatting sqref="D2:D133">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14424,7 +15414,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E124">
+  <conditionalFormatting sqref="E2:E133">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
